--- a/exports/MontosMotoboy_fabric.xlsx
+++ b/exports/MontosMotoboy_fabric.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4485</v>
+        <v>4112</v>
       </c>
       <c r="C2" t="n">
-        <v>4896</v>
+        <v>4488</v>
       </c>
       <c r="D2" t="n">
-        <v>4485</v>
+        <v>4112</v>
       </c>
       <c r="E2" t="n">
-        <v>4485</v>
+        <v>4112</v>
       </c>
       <c r="F2" t="n">
-        <v>4637</v>
+        <v>4251</v>
       </c>
       <c r="G2" t="n">
-        <v>4341</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4078</v>
+        <v>3738</v>
       </c>
       <c r="C3" t="n">
-        <v>4451</v>
+        <v>4080</v>
       </c>
       <c r="D3" t="n">
-        <v>4078</v>
+        <v>3738</v>
       </c>
       <c r="E3" t="n">
-        <v>4078</v>
+        <v>3738</v>
       </c>
       <c r="F3" t="n">
-        <v>4216</v>
+        <v>3864</v>
       </c>
       <c r="G3" t="n">
-        <v>3947</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4485</v>
+        <v>4112</v>
       </c>
       <c r="C4" t="n">
-        <v>4896</v>
+        <v>4488</v>
       </c>
       <c r="D4" t="n">
-        <v>4485</v>
+        <v>4112</v>
       </c>
       <c r="E4" t="n">
-        <v>4485</v>
+        <v>4112</v>
       </c>
       <c r="F4" t="n">
-        <v>4637</v>
+        <v>4251</v>
       </c>
       <c r="G4" t="n">
-        <v>4341</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4078</v>
+        <v>3738</v>
       </c>
       <c r="C5" t="n">
-        <v>4451</v>
+        <v>4080</v>
       </c>
       <c r="D5" t="n">
-        <v>4078</v>
+        <v>3738</v>
       </c>
       <c r="E5" t="n">
-        <v>4078</v>
+        <v>3738</v>
       </c>
       <c r="F5" t="n">
-        <v>4216</v>
+        <v>3864</v>
       </c>
       <c r="G5" t="n">
-        <v>3947</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5741</v>
+        <v>5502</v>
       </c>
       <c r="C6" t="n">
-        <v>5444</v>
+        <v>5218</v>
       </c>
       <c r="D6" t="n">
-        <v>5741</v>
+        <v>5502</v>
       </c>
       <c r="E6" t="n">
-        <v>5741</v>
+        <v>5502</v>
       </c>
       <c r="F6" t="n">
-        <v>5465</v>
+        <v>5237</v>
       </c>
       <c r="G6" t="n">
-        <v>5016</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5320</v>
+        <v>5098</v>
       </c>
       <c r="C7" t="n">
-        <v>5065</v>
+        <v>4854</v>
       </c>
       <c r="D7" t="n">
-        <v>5320</v>
+        <v>5098</v>
       </c>
       <c r="E7" t="n">
-        <v>5320</v>
+        <v>5098</v>
       </c>
       <c r="F7" t="n">
-        <v>5093</v>
+        <v>4881</v>
       </c>
       <c r="G7" t="n">
-        <v>4727</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4817</v>
+        <v>4616</v>
       </c>
       <c r="C8" t="n">
-        <v>4589</v>
+        <v>4398</v>
       </c>
       <c r="D8" t="n">
-        <v>4817</v>
+        <v>4616</v>
       </c>
       <c r="E8" t="n">
-        <v>4817</v>
+        <v>4616</v>
       </c>
       <c r="F8" t="n">
-        <v>4602</v>
+        <v>4410</v>
       </c>
       <c r="G8" t="n">
-        <v>4202</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4651</v>
+        <v>4457</v>
       </c>
       <c r="C9" t="n">
-        <v>4210</v>
+        <v>4034</v>
       </c>
       <c r="D9" t="n">
-        <v>4651</v>
+        <v>4457</v>
       </c>
       <c r="E9" t="n">
-        <v>4651</v>
+        <v>4457</v>
       </c>
       <c r="F9" t="n">
-        <v>4403</v>
+        <v>4219</v>
       </c>
       <c r="G9" t="n">
-        <v>3967</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7114</v>
+        <v>6817</v>
       </c>
       <c r="C10" t="n">
-        <v>6914</v>
+        <v>6626</v>
       </c>
       <c r="D10" t="n">
-        <v>7114</v>
+        <v>6817</v>
       </c>
       <c r="E10" t="n">
-        <v>7114</v>
+        <v>6817</v>
       </c>
       <c r="F10" t="n">
-        <v>6797</v>
+        <v>6514</v>
       </c>
       <c r="G10" t="n">
-        <v>6320</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6624</v>
+        <v>6348</v>
       </c>
       <c r="C11" t="n">
-        <v>6506</v>
+        <v>6235</v>
       </c>
       <c r="D11" t="n">
-        <v>6624</v>
+        <v>6348</v>
       </c>
       <c r="E11" t="n">
-        <v>6624</v>
+        <v>6348</v>
       </c>
       <c r="F11" t="n">
-        <v>6328</v>
+        <v>6064</v>
       </c>
       <c r="G11" t="n">
-        <v>5803</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="12">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5941</v>
+        <v>5694</v>
       </c>
       <c r="C12" t="n">
-        <v>5941</v>
+        <v>5694</v>
       </c>
       <c r="D12" t="n">
-        <v>5941</v>
+        <v>5694</v>
       </c>
       <c r="E12" t="n">
-        <v>5941</v>
+        <v>5694</v>
       </c>
       <c r="F12" t="n">
-        <v>5665</v>
+        <v>5429</v>
       </c>
       <c r="G12" t="n">
-        <v>5424</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="13">
@@ -752,22 +752,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5761</v>
+        <v>5521</v>
       </c>
       <c r="C13" t="n">
-        <v>5590</v>
+        <v>5357</v>
       </c>
       <c r="D13" t="n">
-        <v>5761</v>
+        <v>5521</v>
       </c>
       <c r="E13" t="n">
-        <v>5761</v>
+        <v>5521</v>
       </c>
       <c r="F13" t="n">
-        <v>5500</v>
+        <v>5270</v>
       </c>
       <c r="G13" t="n">
-        <v>5168</v>
+        <v>4953</v>
       </c>
     </row>
   </sheetData>
